--- a/UNH GPS Map.xlsx
+++ b/UNH GPS Map.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Location</t>
   </si>
@@ -113,9 +113,6 @@
     <t>43.137251, -70.932599</t>
   </si>
   <si>
-    <t>Congreve Hall</t>
-  </si>
-  <si>
     <t>43.136743, -70.932896</t>
   </si>
   <si>
@@ -128,7 +125,205 @@
     <t>43.137094, -70.933985</t>
   </si>
   <si>
-    <t>Murkland/DeMeritt</t>
+    <t>43.136334, -70.934063</t>
+  </si>
+  <si>
+    <t>Conant Hall</t>
+  </si>
+  <si>
+    <t>43.135824, -70.934495</t>
+  </si>
+  <si>
+    <t>43.135808, -70.934516</t>
+  </si>
+  <si>
+    <t>Spaulding</t>
+  </si>
+  <si>
+    <t>43.135877, -70.933820</t>
+  </si>
+  <si>
+    <t>43.135975, -70.934727</t>
+  </si>
+  <si>
+    <t>43.135356, -70.934227</t>
+  </si>
+  <si>
+    <t>43.135486, -70.935093</t>
+  </si>
+  <si>
+    <t>43.135320, -70.934867</t>
+  </si>
+  <si>
+    <t>Kingsbury</t>
+  </si>
+  <si>
+    <t>43.135265, -70.934943</t>
+  </si>
+  <si>
+    <t>43.134673, -70.934151</t>
+  </si>
+  <si>
+    <t>43.134962, -70.935546</t>
+  </si>
+  <si>
+    <t>43.134432, -70.935284</t>
+  </si>
+  <si>
+    <t>43.134337, -70.933925</t>
+  </si>
+  <si>
+    <t>43.133573, -70.932531</t>
+  </si>
+  <si>
+    <t>43.133458, -70.933473</t>
+  </si>
+  <si>
+    <t>43.134434, -70.933290</t>
+  </si>
+  <si>
+    <t>Parsons</t>
+  </si>
+  <si>
+    <t>DeMerritt</t>
+  </si>
+  <si>
+    <t>Congreve</t>
+  </si>
+  <si>
+    <t>43.133469, -70.932544</t>
+  </si>
+  <si>
+    <t>43.133278, -70.931945</t>
+  </si>
+  <si>
+    <t>Horton</t>
+  </si>
+  <si>
+    <t>43.133145, -70.932443</t>
+  </si>
+  <si>
+    <t>43.133600, -70.932157</t>
+  </si>
+  <si>
+    <t>43.131764, -70.931726</t>
+  </si>
+  <si>
+    <t>B Lot</t>
+  </si>
+  <si>
+    <t>43.133209, -70.931482</t>
+  </si>
+  <si>
+    <t>43.132511, -70.931028</t>
+  </si>
+  <si>
+    <t>43.133109, -70.931971</t>
+  </si>
+  <si>
+    <t>43.132508, -70.930948</t>
+  </si>
+  <si>
+    <t>Lower Quad</t>
+  </si>
+  <si>
+    <t>43.132656, -70.929859</t>
+  </si>
+  <si>
+    <t>43.132310, -70.930753</t>
+  </si>
+  <si>
+    <t>43.133419, -70.929901</t>
+  </si>
+  <si>
+    <t>43.133507, -70.929727</t>
+  </si>
+  <si>
+    <t>MUB</t>
+  </si>
+  <si>
+    <t>43.134415, -70.929127</t>
+  </si>
+  <si>
+    <t>43.133955, -70.928850</t>
+  </si>
+  <si>
+    <t>43.134097, -70.929756</t>
+  </si>
+  <si>
+    <t>43.134545, -70.929128</t>
+  </si>
+  <si>
+    <t>Holloway Commons</t>
+  </si>
+  <si>
+    <t>43.135499, -70.928892</t>
+  </si>
+  <si>
+    <t>43.134968, -70.928572</t>
+  </si>
+  <si>
+    <t>43.135023, -70.929446</t>
+  </si>
+  <si>
+    <t>43.135534, -70.928836</t>
+  </si>
+  <si>
+    <t>Health Services</t>
+  </si>
+  <si>
+    <t>43.136226, -70.928968</t>
+  </si>
+  <si>
+    <t>43.136032, -70.929461</t>
+  </si>
+  <si>
+    <t>43.135959, -70.928294</t>
+  </si>
+  <si>
+    <t>Paul College</t>
+  </si>
+  <si>
+    <t>43.136243, -70.929018</t>
+  </si>
+  <si>
+    <t>43.136494, -70.929816</t>
+  </si>
+  <si>
+    <t>43.136563, -70.928608</t>
+  </si>
+  <si>
+    <t>43.136947, -70.929467</t>
+  </si>
+  <si>
+    <t>Thompson Hall</t>
+  </si>
+  <si>
+    <t>Smith Hall</t>
+  </si>
+  <si>
+    <t>43.136638, -70.929939</t>
+  </si>
+  <si>
+    <t>43.136791, -70.930545</t>
+  </si>
+  <si>
+    <t>43.136448, -70.930310</t>
+  </si>
+  <si>
+    <t>43.136555, -70.930669</t>
+  </si>
+  <si>
+    <t>43.136393, -70.930753</t>
+  </si>
+  <si>
+    <t>43.136030, -70.932007</t>
+  </si>
+  <si>
+    <t>43.137095, -70.931699</t>
+  </si>
+  <si>
+    <t>43.136828, -70.932113</t>
   </si>
 </sst>
 </file>
@@ -480,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +770,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>28</v>
@@ -592,19 +787,240 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B8" t="s">
         <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
